--- a/templates/occupancy-report.xlsx
+++ b/templates/occupancy-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8132507-DEDD-4DA7-B00E-FC4611E1E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D35FA5-7731-4923-9927-0EDB7560CF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,6 +612,9 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1368,7 +1371,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
@@ -1720,8 +1725,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1830,7 +1835,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>31</v>
@@ -2259,7 +2266,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>32</v>
@@ -2688,7 +2697,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
@@ -3117,7 +3128,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
@@ -3546,7 +3559,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
@@ -3975,7 +3990,9 @@
     <col min="2" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+    </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
